--- a/Data/AHP ch1.xlsx
+++ b/Data/AHP ch1.xlsx
@@ -268,8 +268,8 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="3">
-        <f>1/9</f>
-        <v>0.1111111111</v>
+        <f>1/2</f>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -342,7 +342,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>1.444444444</v>
+        <v>1.833333333</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -399,7 +399,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <f>SUM(G10:G12)</f>
+        <v>1</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -477,19 +480,19 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="3"/>
-        <v>0.2307692308</v>
+        <v>0.1818181818</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ref="F10:F12" si="5">SUM(C10:E10)</f>
-        <v>0.5402930403</v>
+        <v>0.4913419913</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" ref="G10:G12" si="6">F10/3</f>
-        <v>0.1800976801</v>
+        <v>0.1637806638</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" ref="H10:H12" si="7">MMULT(C3:E3,$G$10:$G$12)/G10</f>
-        <v>2.096798493</v>
+        <v>3.004405286</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -514,28 +517,28 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:E11" si="4">C4/$C$6</f>
+        <f t="shared" ref="C11:C12" si="8">C4/$C$6</f>
         <v>0.3333333333</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.1666666667</v>
+        <f t="shared" ref="D11:E11" si="4">D4/D$6</f>
+        <v>0.2857142857</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="4"/>
-        <v>0.01851851852</v>
+        <v>0.2727272727</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="5"/>
-        <v>0.5185185185</v>
+        <v>0.8917748918</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="6"/>
-        <v>0.1728395062</v>
+        <v>0.2972582973</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="7"/>
-        <v>3.298273155</v>
+        <v>3.008495146</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -560,28 +563,28 @@
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:E12" si="8">C5/$C$6</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
-        <v>0.3333333333</v>
+        <f t="shared" ref="D12:E12" si="9">D5/D$6</f>
+        <v>0.5714285714</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="8"/>
-        <v>0.1666666667</v>
+        <f t="shared" si="9"/>
+        <v>0.5454545455</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.616883117</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="6"/>
-        <v>0.3333333333</v>
+        <v>0.538961039</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="7"/>
-        <v>3.657916158</v>
+        <v>3.014725569</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -606,16 +609,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:E13" si="9">SUM(C10:C12)</f>
+        <f t="shared" ref="C13:E13" si="10">SUM(C10:C12)</f>
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="9"/>
-        <v>0.6428571429</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="9"/>
-        <v>0.415954416</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="8" t="s">
@@ -623,7 +626,7 @@
       </c>
       <c r="H13" s="4">
         <f>(AVERAGE(H10:H12)-3)/(2)</f>
-        <v>0.008831301123</v>
+        <v>0.004604333486</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -684,7 +687,7 @@
       </c>
       <c r="H15" s="4">
         <f>H13/H14</f>
-        <v>0.01522638125</v>
+        <v>0.007938506011</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
